--- a/docs/templates.xlsx
+++ b/docs/templates.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\My Programming\Webs Php Projects\123in-photo4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Programming Projects\Webs php\123in-photo4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C6F0EB-C34F-4FBA-A660-28B0A833FD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792F0D47-B701-4D5F-9880-A7481BE8F138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="field-chung" sheetId="1" r:id="rId1"/>
     <sheet name="home" sheetId="2" r:id="rId2"/>
+    <sheet name="product-type" sheetId="3" r:id="rId3"/>
+    <sheet name="product" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -44,6 +46,27 @@
   </si>
   <si>
     <t>home_4_statements_block</t>
+  </si>
+  <si>
+    <t>prod_type_product_block</t>
+  </si>
+  <si>
+    <t>product_repeaters</t>
+  </si>
+  <si>
+    <t>Pro Matrix</t>
+  </si>
+  <si>
+    <t>Cấu trúc</t>
+  </si>
+  <si>
+    <t>detail_tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   title_line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   description_ck</t>
   </si>
 </sst>
 </file>
@@ -79,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D48FC-CF52-4279-9FC8-5A4EAEDD4053}">
   <dimension ref="O2:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,4 +434,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C9E91F-D3C6-44DF-979A-B656EBDEBDE9}">
+  <dimension ref="O2:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAB1E1-F509-41AC-AB76-9EDFB6CB8769}">
+  <dimension ref="O2:S7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/templates.xlsx
+++ b/docs/templates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\My Programming Projects\Webs php\123in-photo4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZDung HDD\My Programming\Webs Php Projects\123in-photo4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792F0D47-B701-4D5F-9880-A7481BE8F138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3507673B-96D6-4D00-8F53-CEDA57AB411F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="field-chung" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t xml:space="preserve">   description_ck</t>
+  </si>
+  <si>
+    <t>product_featured</t>
+  </si>
+  <si>
+    <t>product_feature_image_name</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Hình feature ngoài home</t>
+  </si>
+  <si>
+    <t>home_feature_prod_block</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,10 +415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743D48FC-CF52-4279-9FC8-5A4EAEDD4053}">
-  <dimension ref="O2:R3"/>
+  <dimension ref="O2:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,6 +446,14 @@
         <v>5</v>
       </c>
       <c r="Q3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -479,15 +505,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBAB1E1-F509-41AC-AB76-9EDFB6CB8769}">
-  <dimension ref="O2:S7"/>
+  <dimension ref="O2:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" customWidth="1"/>
   </cols>
@@ -532,6 +558,25 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="15:19" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
